--- a/data/wrong.xlsx
+++ b/data/wrong.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robinson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00D4A59-1D40-4A08-AC33-FF3DD384AF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7ED006-3EE9-4781-8BC6-04821BC52BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBE6027F-AF9A-4D1D-A7AF-79D725769F86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DBE6027F-AF9A-4D1D-A7AF-79D725769F86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t>user8@example.com</t>
   </si>
   <si>
-    <t>user9@example.com</t>
-  </si>
-  <si>
     <t>user10@example.com</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>-100.5</t>
+  </si>
+  <si>
+    <t>user9</t>
   </si>
 </sst>
 </file>
@@ -607,7 +607,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,16 +644,16 @@
         <v>45292</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -664,16 +664,16 @@
         <v>45293</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -684,16 +684,16 @@
         <v>45294</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -704,16 +704,16 @@
         <v>45295</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -724,16 +724,16 @@
         <v>45296</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -744,16 +744,16 @@
         <v>45297</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -764,16 +764,16 @@
         <v>45298</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -784,256 +784,256 @@
         <v>45299</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9">
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2">
         <v>45292</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>45293</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11">
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>45294</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>45295</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>45337</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>45339</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>45341</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>45343</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>45345</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
         <v>45347</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>45349</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20">
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
         <v>45351</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
